--- a/sessions/02/02-In-Class-Lab/data/completed_hist03z1-fy2019v01.xlsx
+++ b/sessions/02/02-In-Class-Lab/data/completed_hist03z1-fy2019v01.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smussend/Desktop/intro-to-data-journalism-public/sessions/02/02-In-Class-Lab/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smussend/Desktop/data-journalism-19-spring/sessions/02/02-In-Class-Lab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4114320-BDD4-3D4C-BADC-6F4B4576FE48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24900" windowHeight="14280"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24900" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="Source" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -405,7 +406,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###"/>
   </numFmts>
@@ -893,14 +894,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="CE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="CH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CO11" sqref="CO11"/>
+      <selection pane="bottomRight" activeCell="CO4" sqref="CO4:CO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2045,8 +2046,8 @@
         <v>1.6582681540989099E-2</v>
       </c>
       <c r="CO4">
-        <f>RANK(CI3, $CI$3:$CI$11)</f>
-        <v>1</v>
+        <f>RANK(CI4, $CI$4:$CI$11)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:93" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -2332,8 +2333,8 @@
         <v>0.123484177395948</v>
       </c>
       <c r="CO5">
-        <f t="shared" ref="CO5:CO11" si="5">RANK(CI4, $CI$3:$CI$11)</f>
-        <v>8</v>
+        <f t="shared" ref="CO5:CO11" si="5">RANK(CI5, $CI$4:$CI$11)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:93" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -2620,7 +2621,7 @@
       </c>
       <c r="CO6">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:93" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -2907,7 +2908,7 @@
       </c>
       <c r="CO7">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:93" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -3194,7 +3195,7 @@
       </c>
       <c r="CO8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:93" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -3481,7 +3482,7 @@
       </c>
       <c r="CO9">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:93" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -3768,7 +3769,7 @@
       </c>
       <c r="CO10">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:93" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -4055,7 +4056,7 @@
       </c>
       <c r="CO11">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:93" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -10866,7 +10867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
